--- a/T.I/Divisão Sprints.xlsx
+++ b/T.I/Divisão Sprints.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\FACULDADE\Pesquisa e Inovação\trabalho-individual-abner-1cco\T.I\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\FACULDADE\Pesquisa e Inovação\Individual - Oficial\Individual-Oficial-Abner\T.I\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>PROJETO INAD</t>
   </si>
@@ -50,19 +50,25 @@
     <t>Sprint 3 14/05 - 16/05</t>
   </si>
   <si>
-    <t>Sprint 4 17/05 - 25/05</t>
-  </si>
-  <si>
     <t>Início da Reta Final, Conclusão do Banco Local e Modelagem, Conclusão da Estilização e Criação de Páginas no site. Início da Correção das API's;</t>
   </si>
   <si>
     <t>Revisão de Requisitos, Backlog, HLD e LLD, Modelagem e Banco, Implantação Inicial das API's</t>
   </si>
   <si>
-    <t>Sprint 4 26/05 - 30/05</t>
-  </si>
-  <si>
-    <t>Elaboração de Apresentação, Refinamento de Backlog, Correção de Proporção do Site, Ajustes Gerais Finais</t>
+    <t>Sprint 4 17/05 - 24/05</t>
+  </si>
+  <si>
+    <t>Sprint 5 24/05 - 27/05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sprint 6 27/05 - 09/06 </t>
+  </si>
+  <si>
+    <t>Criação dos Slides, Criação de Roteiro, Refinamento Geral, Ajustes na Documentação;</t>
+  </si>
+  <si>
+    <t>Elaboração de Apresentação, Refinamento de Backlog, Correção de Proporção do Site, Ajustes Gerais Finais, Inserção de Vetores e Lista;</t>
   </si>
 </sst>
 </file>
@@ -147,9 +153,6 @@
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -162,6 +165,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -448,10 +454,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -461,61 +467,69 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
+      <c r="B1" s="7"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="6" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="B6" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+    </row>
+    <row r="7" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
         <v>12</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/T.I/Divisão Sprints.xlsx
+++ b/T.I/Divisão Sprints.xlsx
@@ -75,7 +75,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -96,8 +96,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -119,6 +126,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFB2B2B2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF3333"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -157,17 +170,17 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -177,6 +190,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF3333"/>
+      <color rgb="FFFF5050"/>
       <color rgb="FFB2B2B2"/>
     </mruColors>
   </colors>
@@ -457,7 +472,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -467,10 +482,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
+      <c r="B1" s="4"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -485,50 +500,50 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="7" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="6" t="s">
         <v>13</v>
       </c>
     </row>
